--- a/datasets/tourism_india.xlsx
+++ b/datasets/tourism_india.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B9B50-0369-444C-8A7B-76F81DA0B0EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Period</t>
   </si>
@@ -128,12 +129,57 @@
   </si>
   <si>
     <t>Roy,K and Tisdell,C (1998), Tourism in India, New York, Nova Science Publisher</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Seventh</t>
+  </si>
+  <si>
+    <t>Eighth</t>
+  </si>
+  <si>
+    <t>Ninth</t>
+  </si>
+  <si>
+    <t>Tenth</t>
+  </si>
+  <si>
+    <t>Eleventh</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Rolling</t>
+  </si>
+  <si>
+    <t>Twelfth</t>
+  </si>
+  <si>
+    <t>Plan Holidays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
@@ -234,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -355,12 +401,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -428,6 +485,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,6 +583,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -558,6 +635,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,11 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,9 +844,10 @@
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="13" max="13" width="37" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
@@ -769,7 +864,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -806,11 +901,14 @@
       <c r="L2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1951</v>
       </c>
@@ -826,11 +924,14 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1952</v>
       </c>
@@ -845,11 +946,14 @@
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="27" t="s">
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1953</v>
       </c>
@@ -864,11 +968,14 @@
       <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="27" t="s">
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1954</v>
       </c>
@@ -883,11 +990,14 @@
       <c r="J6" s="6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1955</v>
       </c>
@@ -904,11 +1014,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="27" t="s">
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1956</v>
       </c>
@@ -925,11 +1038,14 @@
       <c r="J8" s="6"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="27" t="s">
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1957</v>
       </c>
@@ -944,11 +1060,14 @@
       <c r="J9" s="6"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1958</v>
       </c>
@@ -963,11 +1082,14 @@
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1959</v>
       </c>
@@ -982,11 +1104,14 @@
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="27" t="s">
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1960</v>
       </c>
@@ -1003,11 +1128,14 @@
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="28" t="s">
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1961</v>
       </c>
@@ -1024,8 +1152,11 @@
       <c r="J13" s="6"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1962</v>
       </c>
@@ -1040,8 +1171,11 @@
       <c r="J14" s="6"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1963</v>
       </c>
@@ -1056,8 +1190,11 @@
       <c r="J15" s="6"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1964</v>
       </c>
@@ -1072,6 +1209,9 @@
       <c r="J16" s="6"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1090,6 +1230,9 @@
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1108,6 +1251,9 @@
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1124,6 +1270,9 @@
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1142,6 +1291,9 @@
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1160,6 +1312,9 @@
       <c r="J21" s="6"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1178,6 +1333,9 @@
       <c r="J22" s="6"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1198,6 +1356,9 @@
       <c r="J23" s="6"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1218,6 +1379,9 @@
       <c r="J24" s="6"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1238,6 +1402,9 @@
       <c r="J25" s="6"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1258,6 +1425,9 @@
       <c r="J26" s="6"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1278,6 +1448,9 @@
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1298,6 +1471,9 @@
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
       <c r="Z28" s="10">
         <v>0.04</v>
       </c>
@@ -1323,6 +1499,9 @@
       <c r="J29" s="6"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
       <c r="Z29" s="10">
         <v>0.04</v>
       </c>
@@ -1348,6 +1527,9 @@
       <c r="J30" s="6"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
       <c r="Z30" s="10">
         <v>0.05</v>
       </c>
@@ -1373,6 +1555,9 @@
       <c r="J31" s="6"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31" t="s">
+        <v>50</v>
+      </c>
       <c r="Z31" s="10">
         <v>0.06</v>
       </c>
@@ -1398,6 +1583,9 @@
       <c r="J32" s="6"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32" t="s">
+        <v>41</v>
+      </c>
       <c r="Z32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1423,6 +1611,9 @@
       <c r="J33" s="6"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
       <c r="Z33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1448,6 +1639,9 @@
       <c r="J34" s="6"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
       <c r="Z34" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1473,6 +1667,9 @@
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
+      <c r="M35" t="s">
+        <v>41</v>
+      </c>
       <c r="Z35" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1498,6 +1695,9 @@
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
       <c r="Z36" s="10">
         <v>0.08</v>
       </c>
@@ -1523,6 +1723,9 @@
       <c r="J37" s="6"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
       <c r="Z37" s="10">
         <v>0.08</v>
       </c>
@@ -1548,6 +1751,9 @@
       <c r="J38" s="6"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
       <c r="Z38" s="10">
         <v>0.104059</v>
       </c>
@@ -1573,6 +1779,9 @@
       <c r="J39" s="6"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
       <c r="Z39" s="10">
         <v>0.109595</v>
       </c>
@@ -1598,6 +1807,9 @@
       <c r="J40" s="6"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
+      <c r="M40" t="s">
+        <v>42</v>
+      </c>
       <c r="Z40" s="10">
         <v>0.133049</v>
       </c>
@@ -1623,6 +1835,9 @@
       <c r="J41" s="6"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
       <c r="Z41" s="10">
         <v>0.159386</v>
       </c>
@@ -1650,6 +1865,9 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
       <c r="Z42" s="10">
         <v>0.17467099999999999</v>
       </c>
@@ -1677,6 +1895,9 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
       <c r="Z43" s="10">
         <v>0.218803</v>
       </c>
@@ -1704,6 +1925,9 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
       <c r="Z44" s="10">
         <v>0.25151000000000001</v>
       </c>
@@ -1731,6 +1955,9 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
       <c r="Z45" s="10">
         <v>0.25248300000000001</v>
       </c>
@@ -1758,6 +1985,9 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
       <c r="Z46" s="10">
         <v>0.27342899999999998</v>
       </c>
@@ -1791,6 +2021,9 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
+      <c r="M47" t="s">
+        <v>43</v>
+      </c>
       <c r="Z47" s="10">
         <v>0.29845699999999997</v>
       </c>
@@ -1822,6 +2055,9 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="25"/>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
       <c r="Z48" s="10">
         <v>0.29317399999999999</v>
       </c>
@@ -1853,6 +2089,9 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="25"/>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
       <c r="Z49" s="10">
         <v>0.34328599999999998</v>
       </c>
@@ -1884,6 +2123,9 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="25"/>
+      <c r="M50" t="s">
+        <v>44</v>
+      </c>
       <c r="Z50" s="10">
         <v>0.37548399999999998</v>
       </c>
@@ -1919,6 +2161,9 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
+      <c r="M51" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1951,6 +2196,9 @@
       <c r="L52" s="3">
         <v>3.4</v>
       </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1983,6 +2231,9 @@
       <c r="L53" s="3">
         <v>3.198</v>
       </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -2015,6 +2266,9 @@
       <c r="L54" s="3">
         <v>3.1030000000000002</v>
       </c>
+      <c r="M54" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2049,6 +2303,9 @@
       <c r="L55" s="3">
         <v>4.4630000000000001</v>
       </c>
+      <c r="M55" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -2083,6 +2340,9 @@
       <c r="L56" s="3">
         <v>6.17</v>
       </c>
+      <c r="M56" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -2119,6 +2379,9 @@
       <c r="L57" s="3">
         <v>7.4930000000000003</v>
       </c>
+      <c r="M57" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2155,6 +2418,9 @@
       <c r="L58" s="3">
         <v>8.6340000000000003</v>
       </c>
+      <c r="M58" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -2191,7 +2457,9 @@
       <c r="L59" s="3">
         <v>10.728999999999999</v>
       </c>
-      <c r="M59" s="13"/>
+      <c r="M59" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -2228,7 +2496,9 @@
       <c r="L60" s="3">
         <v>11.832000000000001</v>
       </c>
-      <c r="M60" s="13"/>
+      <c r="M60" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -2265,7 +2535,9 @@
       <c r="L61" s="3">
         <v>11.135999999999999</v>
       </c>
-      <c r="M61" s="13"/>
+      <c r="M61" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -2302,7 +2574,9 @@
       <c r="L62" s="3">
         <v>14.193</v>
       </c>
-      <c r="M62" s="13"/>
+      <c r="M62" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -2341,7 +2615,9 @@
       <c r="L63" s="3">
         <v>16.564</v>
       </c>
-      <c r="M63" s="13"/>
+      <c r="M63" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2380,7 +2656,9 @@
       <c r="L64" s="3">
         <v>17.736999999999998</v>
       </c>
-      <c r="M64" s="13"/>
+      <c r="M64" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -2419,7 +2697,9 @@
       <c r="L65" s="3">
         <v>18.445</v>
       </c>
-      <c r="M65" s="13"/>
+      <c r="M65" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -2458,7 +2738,9 @@
       <c r="L66" s="26">
         <v>20.236000000000001</v>
       </c>
-      <c r="M66" s="13"/>
+      <c r="M66" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -2497,7 +2779,9 @@
       <c r="L67" s="26">
         <v>21.071000000000002</v>
       </c>
-      <c r="M67" s="13"/>
+      <c r="M67" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -2536,7 +2820,9 @@
       <c r="L68" s="26">
         <v>23.15</v>
       </c>
-      <c r="M68" s="13"/>
+      <c r="M68" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
